--- a/data/artists.xlsx
+++ b/data/artists.xlsx
@@ -8,30 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google\University\data analysis\work\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BCCFE5-333A-4BF3-89A2-A1BE68C9B822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4138079E-C32B-4792-A072-6FDB3D87FE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>ArtistID</t>
-  </si>
-  <si>
-    <t>Artist Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>AC/DC</t>
   </si>
@@ -73,6 +76,15 @@
   </si>
   <si>
     <t>Iron Maiden</t>
+  </si>
+  <si>
+    <t>Артист ID</t>
+  </si>
+  <si>
+    <t>Имя исполнителя</t>
+  </si>
+  <si>
+    <t>Рейтинг</t>
   </si>
 </sst>
 </file>
@@ -124,7 +136,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -149,11 +161,22 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -166,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,7 +200,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -460,132 +492,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B15"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <f ca="1">ROUND(RAND()*9+1,1)</f>
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:C15" ca="1" si="0">ROUND(RAND()*9+1,1)</f>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6">
+        <f ca="1">ROUND(RAND()*9+1,1)</f>
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6">
+        <f ca="1">ROUND(RAND()*9+1,1)</f>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6">
+        <f ca="1">ROUND(RAND()*9+1,1)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6">
+        <f ca="1">ROUND(RAND()*9+1,1)</f>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6">
+        <f ca="1">ROUND(RAND()*9+1,1)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6">
+        <f ca="1">ROUND(RAND()*9+1,1)</f>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>19</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>90</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>15</v>
+      <c r="B15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.7</v>
       </c>
     </row>
   </sheetData>
